--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="5310" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="5310" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Package" sheetId="1" r:id="rId1"/>
     <sheet name="Procedures" sheetId="2" r:id="rId2"/>
     <sheet name="Table" sheetId="3" r:id="rId3"/>
     <sheet name="Migrate dữ liệu" sheetId="4" r:id="rId4"/>
+    <sheet name="Mapping_table_DBLINK" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Package!$B$1:$B$84</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="234">
   <si>
     <t>Package</t>
   </si>
@@ -258,9 +259,6 @@
   </si>
   <si>
     <t>device_no</t>
-  </si>
-  <si>
-    <t>Check lại trên prod xem có phải varchar rồi ko</t>
   </si>
   <si>
     <t>tran_device</t>
@@ -469,15 +467,315 @@
   <si>
     <t>Ko tồn tại bảng</t>
   </si>
+  <si>
+    <t xml:space="preserve">org_no
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra trên db pilot đã là kiểu varchar</t>
+  </si>
+  <si>
+    <t>Đã là kiểu varchar</t>
+  </si>
+  <si>
+    <t>--&gt; Cần sửa trường này</t>
+  </si>
+  <si>
+    <t>sync_bk_account_history</t>
+  </si>
+  <si>
+    <t>TM_SEQ</t>
+  </si>
+  <si>
+    <t>sync_cdc_bk_acct_hist_fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALTER TABLE BK_ACCOUNT_HISTORY
+ADD tm_seq_bk type VARCHAR2(50) NOT NULL DEFAULT (tm_seq) </t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>SI_DATPEBS_EBCRDM</t>
+  </si>
+  <si>
+    <t>svdatpv51.cdmast@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_DAT_CDMAST</t>
+  </si>
+  <si>
+    <t>SI_DAT_CFADDR</t>
+  </si>
+  <si>
+    <t>svdatpv51.cfconn@DBLINK_DATA</t>
+  </si>
+  <si>
+    <t>SI_DAT_CFCONN</t>
+  </si>
+  <si>
+    <t>SI_DAT_CFMAST</t>
+  </si>
+  <si>
+    <t>svdatpv51.cfoffl@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_DAT_CFOFFL</t>
+  </si>
+  <si>
+    <t>svdatpv51.ddmast@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_DAT_DDMAST</t>
+  </si>
+  <si>
+    <t>svdatpv51.lnmast@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_DAT_LNMAST</t>
+  </si>
+  <si>
+    <t>SI_DAT_RMDETL</t>
+  </si>
+  <si>
+    <t>SI_DAT_RMMAST</t>
+  </si>
+  <si>
+    <t>svdatpv51.tfmast@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_DAT_TFMAST</t>
+  </si>
+  <si>
+    <t>svdatpv51.tmtran@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_DAT_TMTRAN</t>
+  </si>
+  <si>
+    <t>SVPARPV51.cdpar2@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_PAR_CDPAR2</t>
+  </si>
+  <si>
+    <t>SVPARPV51.ddpar2@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_PAR_DDPAR2</t>
+  </si>
+  <si>
+    <t>SVPARPV51.cfiddf@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_PAR_CFIDDF</t>
+  </si>
+  <si>
+    <t>SVPARPV51.SSFXRT@DBLINK_DATA</t>
+  </si>
+  <si>
+    <t>SI_PAR_SSFXRT</t>
+  </si>
+  <si>
+    <t>SVPARPV51.lnpar2@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_PAR_LNPAR2</t>
+  </si>
+  <si>
+    <t>SVPARPV51.SSOFFR@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_PAR_SSOFFR</t>
+  </si>
+  <si>
+    <t>STDATTRN.ddmast@dblink_data</t>
+  </si>
+  <si>
+    <t>stdattrn.lnappl@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_DAT_LNAPPL</t>
+  </si>
+  <si>
+    <t>svdatpv51.lnappl@dblink_data</t>
+  </si>
+  <si>
+    <t>sthistrn.ddhist@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_HIS_DDHIST</t>
+  </si>
+  <si>
+    <t>sthistrn.lnhist@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_HIS_LNHIST</t>
+  </si>
+  <si>
+    <t>SI_DAT_DDAFTM</t>
+  </si>
+  <si>
+    <t>svdatpv51.TFHCHR@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_DAT_TFHCHR</t>
+  </si>
+  <si>
+    <t>SVDATPV51.TLLOG@DBLINK_DATA</t>
+  </si>
+  <si>
+    <t>SI_DAT_TLLOG</t>
+  </si>
+  <si>
+    <t>svhispv51.lnhist@dblink_data</t>
+  </si>
+  <si>
+    <t>svhispv51.ddhist@dblink_data</t>
+  </si>
+  <si>
+    <t>SVPARPV51.BVPARC@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_PAR_BVPARC</t>
+  </si>
+  <si>
+    <t>SVPARPV51.TFPAR2@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_PAR_TFPAR2</t>
+  </si>
+  <si>
+    <t>SVPARPV51.SWBICD@DBLINK_DATA</t>
+  </si>
+  <si>
+    <t>SI_PAR_SWBICD</t>
+  </si>
+  <si>
+    <t>SVPARPV51.SSRATE@dblink_data</t>
+  </si>
+  <si>
+    <t>si_par_ssrate</t>
+  </si>
+  <si>
+    <t>svdatpv51.cdmemo@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_DAT_CDMEMO</t>
+  </si>
+  <si>
+    <t>svdatpv51.cdtnew@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_DAT_CDTNEW</t>
+  </si>
+  <si>
+    <t>svdatpv51.cfagrp@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_DAT_CFAGRP</t>
+  </si>
+  <si>
+    <t>svdatpv51.cftnew@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_DAT_CFTNEW</t>
+  </si>
+  <si>
+    <t>SVDATPV51.DDMEMO@DBLINK_DATA</t>
+  </si>
+  <si>
+    <t>SI_DAT_DDMEMO_N</t>
+  </si>
+  <si>
+    <t>svdatpv51.ddtnew@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_DAT_DDTNEW</t>
+  </si>
+  <si>
+    <t>svdatpv51.ddtrn2@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_DAT_DDTRN2</t>
+  </si>
+  <si>
+    <t>svdatpv51.lntnew@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_DAT_LNTNEW</t>
+  </si>
+  <si>
+    <t>svdatpv51.lnmemo@dblink_data</t>
+  </si>
+  <si>
+    <t>SI_DAT_LNMEMO</t>
+  </si>
+  <si>
+    <t>STDATTRN.ddtnew@dblink_data</t>
+  </si>
+  <si>
+    <t>RAWSTAGE</t>
+  </si>
+  <si>
+    <t>STAGING</t>
+  </si>
+  <si>
+    <t>RAWSTAGE_PRO_CORE</t>
+  </si>
+  <si>
+    <t>STAGING_PRO_CORE</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">svdatpv51.tmpbmast@dblink_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">svdatpv51.tftran@dblink_data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">svhispv51.cdhist@dblink_data </t>
+  </si>
+  <si>
+    <t>DB Link</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>New data source</t>
+  </si>
+  <si>
+    <t>New table</t>
+  </si>
+  <si>
+    <t>New DB Link</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -518,13 +816,31 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -590,12 +906,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -606,13 +925,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -624,17 +943,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -644,7 +963,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -656,16 +975,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -949,789 +1289,789 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="4" width="63.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="36" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="4" width="63.5703125" style="5" customWidth="1"/>
     <col min="5" max="5" width="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D4" s="14"/>
+        <v>90</v>
+      </c>
+      <c r="D4" s="15"/>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="22"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="23"/>
       <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="15"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="22"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="23"/>
       <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="14"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="14"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="24" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="14" t="s">
+      <c r="C23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+    </row>
+    <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="D32" s="15"/>
+      <c r="E32" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="C46" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="24" t="s">
+      <c r="C49" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="17"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="17"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="17"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="17"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="17"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="14" t="s">
+      <c r="C60" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="17"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="24"/>
-      <c r="C25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="8" t="s">
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="17"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="17"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="C66" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="17"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="17"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="17"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D69" s="17"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="22"/>
+      <c r="C70" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="25"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="11"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="17"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="15"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="8" t="s">
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="10"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="24"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B46" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="10"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="D47" s="10"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="10"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="16"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="D51" s="16"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" s="16"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="16" t="s">
+      <c r="C83" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="16"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" s="16"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D55" s="16"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" s="16"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D57" s="16"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="16"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" s="16"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D60" s="16"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" s="16"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" s="16"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" s="16"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D64" s="16"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C66" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D66" s="16"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
-      <c r="B67" s="24"/>
-      <c r="C67" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D67" s="16"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D68" s="16"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D69" s="16"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" s="10"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="24"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71" s="10"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="24"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="D72" s="10"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="24"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D73" s="10"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D74" s="10"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="D75" s="10"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="24"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D76" s="16"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D81" s="14"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D83" s="14"/>
+      <c r="D83" s="15"/>
       <c r="E83" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="24" t="s">
+      <c r="A84" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="10" t="s">
+      <c r="B84" s="25"/>
+      <c r="C84" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D84" s="10"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="24"/>
-      <c r="B85" s="24"/>
-      <c r="C85" s="9" t="s">
+      <c r="D85" s="10"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D85" s="9"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
-      <c r="B86" s="24"/>
-      <c r="C86" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="D86" s="9"/>
+      <c r="D86" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B84"/>
@@ -1760,9 +2100,12 @@
   <hyperlinks>
     <hyperlink ref="C33" r:id="rId1"/>
     <hyperlink ref="C32" r:id="rId2"/>
+    <hyperlink ref="C25" r:id="rId3"/>
+    <hyperlink ref="C48" r:id="rId4"/>
+    <hyperlink ref="C47" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -1784,148 +2127,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
         <v>131</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="17" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C4" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="14" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+      <c r="C10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D10" s="27" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="26" t="s">
+      <c r="E10" s="29" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="14" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D11" t="s">
@@ -1933,13 +2276,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="15" t="s">
         <v>49</v>
       </c>
       <c r="D12" t="s">
@@ -1947,11 +2290,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
         <v>63</v>
       </c>
       <c r="D13" t="s">
@@ -1959,64 +2302,64 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2043,113 +2386,163 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="C1" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="14" t="s">
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="19" t="s">
+      <c r="D4" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="15" t="s">
         <v>74</v>
       </c>
       <c r="D5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="14" t="s">
+      <c r="C7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="14" t="s">
+      <c r="D8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="B9" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>70</v>
+      <c r="D9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2164,12 +2557,1086 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
+        <v>3</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>4</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="32">
+        <v>8</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>9</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="32">
+        <v>10</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="32">
+        <v>11</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="32">
+        <v>13</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>17</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>21</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>22</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>23</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>26</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>29</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>31</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>32</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>33</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <v>34</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
+        <v>35</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="32">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="32">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="32">
+        <v>1</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="32">
+        <v>2</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="32">
+        <v>14</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="32">
+        <v>24</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="32">
+        <v>25</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="32">
+        <v>27</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="F28" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="32">
+        <v>28</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" s="34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="32">
+        <v>30</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="32">
+        <v>36</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="32">
+        <v>37</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="F32" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
+        <v>42</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
+        <v>5</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
+        <v>6</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="32">
+        <v>7</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="32">
+        <v>12</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="32">
+        <v>15</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
+        <v>16</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="32">
+        <v>18</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>19</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="F41" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G41" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
+        <v>20</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="32">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>221</v>
+      </c>
+      <c r="G43" s="36" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+    </row>
+    <row r="45" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B45" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+    </row>
+    <row r="46" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B46" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>